--- a/산출물/설계/AND-02.기능정의서/20200810_스킬관리_AND-02_기능정의서_v0.1.xlsx
+++ b/산출물/설계/AND-02.기능정의서/20200810_스킬관리_AND-02_기능정의서_v0.1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\infogen_ims\산출물\설계\AND-02.기능정의서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F5800B-7B6A-4DA1-B672-D3E341A18CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38370" windowHeight="16635"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="1" r:id="rId1"/>
@@ -12,22 +18,30 @@
     <sheet name="기능정의서" sheetId="3" r:id="rId3"/>
     <sheet name="기능정의서(샘플)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ROKMC</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -515,18 +529,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이주호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ver. 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김은희</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1070,17 +1084,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1124,7 +1138,7 @@
     </row>
     <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="K9" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="22"/>
     </row>
@@ -1139,11 +1153,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -1382,14 +1396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1656,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1928,5 +1942,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>